--- a/biology/Médecine/Marcellin-Hercule_Bompart/Marcellin-Hercule_Bompart.xlsx
+++ b/biology/Médecine/Marcellin-Hercule_Bompart/Marcellin-Hercule_Bompart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marcellin-Hercule Bompart, né en 1594 à Clermont et mort en 1648 dans cette même ville, est un médecin français qui a notamment exercé au service du roi Louis XIII.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Issu d'une famille probablement originaire d'Alais en Languedoc, il est nommé médecin du principal hospice de Clermont en 1628. Après s'être fixé à Paris, il reçoit en 1631 la charge de conseiller-médecin ordinaire du roi, puis l'année suivante celle d'intendant des eaux et bains du Bourbonnais et de l'Auvergne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Issu d'une famille probablement originaire d'Alais en Languedoc, il est nommé médecin du principal hospice de Clermont en 1628. Après s'être fixé à Paris, il reçoit en 1631 la charge de conseiller-médecin ordinaire du roi, puis l'année suivante celle d'intendant des eaux et bains du Bourbonnais et de l'Auvergne.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Nouveau chasse-peste, Paris, chez Philippes Gaultier, 1630 (lire en ligne)
 La conférence et entrevue d'Hippocrate et de Démocrite. Tirée du grec, et commentee par Marcellin Bompart conseiller &amp; médecin ordinairedu Roy dediee à Monseigneur le Mareschal d' Effiat / Tirée du grec et commentée par Marcellin Bompart, Paris, chez la veuve Philippe Gaultier, 1632 (lire en ligne)
